--- a/Master-thesis-text/Book1.xlsx
+++ b/Master-thesis-text/Book1.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sort" sheetId="1" r:id="rId1"/>
+    <sheet name="accelerometer" sheetId="5" r:id="rId2"/>
+    <sheet name="fibonacci" sheetId="2" r:id="rId3"/>
+    <sheet name="factorial" sheetId="3" r:id="rId4"/>
+    <sheet name="database" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Sortowanie</t>
   </si>
@@ -43,6 +45,24 @@
   </si>
   <si>
     <t>App Inventor Iteracyjnie</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>App Inventor -</t>
+  </si>
+  <si>
+    <t>Java SqlLite -</t>
+  </si>
+  <si>
+    <t>Java SharedPreferences -</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -76,10 +96,60 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -88,9 +158,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,7 +228,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$5</c:f>
+              <c:f>sort!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -163,7 +242,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$14</c:f>
+              <c:f>sort!$C$6:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -199,7 +278,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$6:$G$14</c:f>
+              <c:f>sort!$G$6:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -240,7 +319,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$5</c:f>
+              <c:f>sort!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -254,7 +333,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$14</c:f>
+              <c:f>sort!$C$6:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -290,7 +369,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$6:$H$14</c:f>
+              <c:f>sort!$H$6:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -336,11 +415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90931200"/>
-        <c:axId val="90932736"/>
+        <c:axId val="92119040"/>
+        <c:axId val="92120576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90931200"/>
+        <c:axId val="92119040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -350,7 +429,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90932736"/>
+        <c:crossAx val="92120576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -358,7 +437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90932736"/>
+        <c:axId val="92120576"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -396,7 +475,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90931200"/>
+        <c:crossAx val="92119040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -463,7 +542,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$27</c:f>
+              <c:f>accelerometer!$I$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -477,7 +556,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$28:$D$36</c:f>
+              <c:f>accelerometer!$F$9:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -513,7 +592,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$28:$G$36</c:f>
+              <c:f>accelerometer!$I$9:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -554,7 +633,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$27</c:f>
+              <c:f>accelerometer!$J$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -568,7 +647,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$28:$D$36</c:f>
+              <c:f>accelerometer!$F$9:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -604,7 +683,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>accelerometer!$J$9:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -650,11 +729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97529856"/>
-        <c:axId val="97531392"/>
+        <c:axId val="113428736"/>
+        <c:axId val="101535744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97529856"/>
+        <c:axId val="113428736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +743,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97531392"/>
+        <c:crossAx val="101535744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97531392"/>
+        <c:axId val="101535744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -709,7 +788,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97529856"/>
+        <c:crossAx val="113428736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -776,7 +855,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$5</c:f>
+              <c:f>fibonacci!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -790,7 +869,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$6:$B$14</c:f>
+              <c:f>fibonacci!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -826,7 +905,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$6:$C$14</c:f>
+              <c:f>fibonacci!$C$6:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -867,7 +946,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$5</c:f>
+              <c:f>fibonacci!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -881,7 +960,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$6:$B$14</c:f>
+              <c:f>fibonacci!$B$6:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -917,7 +996,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$6:$D$14</c:f>
+              <c:f>fibonacci!$D$6:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -963,11 +1042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40003840"/>
-        <c:axId val="39591936"/>
+        <c:axId val="98660736"/>
+        <c:axId val="98662272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40003840"/>
+        <c:axId val="98660736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +1056,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39591936"/>
+        <c:crossAx val="98662272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -985,7 +1064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39591936"/>
+        <c:axId val="98662272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1016,7 +1095,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40003840"/>
+        <c:crossAx val="98660736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1099,7 +1178,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$8</c:f>
+              <c:f>factorial!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1113,7 +1192,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$B$19</c:f>
+              <c:f>factorial!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1152,7 +1231,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$9:$C$19</c:f>
+              <c:f>factorial!$C$9:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1193,7 +1272,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$8</c:f>
+              <c:f>factorial!$D$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1207,7 +1286,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$B$19</c:f>
+              <c:f>factorial!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1246,7 +1325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$9:$D$19</c:f>
+              <c:f>factorial!$D$9:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1290,7 +1369,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$E$8</c:f>
+              <c:f>factorial!$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1304,7 +1383,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$B$19</c:f>
+              <c:f>factorial!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1343,7 +1422,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$9:$E$19</c:f>
+              <c:f>factorial!$E$9:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1375,7 +1454,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$8</c:f>
+              <c:f>factorial!$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1389,7 +1468,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$B$19</c:f>
+              <c:f>factorial!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1428,7 +1507,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$F$9:$F$19</c:f>
+              <c:f>factorial!$F$9:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1465,11 +1544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85371136"/>
-        <c:axId val="85487616"/>
+        <c:axId val="98976896"/>
+        <c:axId val="98978432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85371136"/>
+        <c:axId val="98976896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1558,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85487616"/>
+        <c:crossAx val="98978432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1487,7 +1566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85487616"/>
+        <c:axId val="98978432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1518,7 +1597,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85371136"/>
+        <c:crossAx val="98976896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1603,7 +1682,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$8</c:f>
+              <c:f>factorial!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1617,7 +1696,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$B$19</c:f>
+              <c:f>factorial!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1656,7 +1735,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$9:$C$19</c:f>
+              <c:f>factorial!$C$9:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1697,7 +1776,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$8</c:f>
+              <c:f>factorial!$D$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1711,7 +1790,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$B$19</c:f>
+              <c:f>factorial!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1750,7 +1829,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$9:$D$19</c:f>
+              <c:f>factorial!$D$9:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1794,7 +1873,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$E$8</c:f>
+              <c:f>factorial!$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1808,7 +1887,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$B$19</c:f>
+              <c:f>factorial!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1847,7 +1926,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$9:$E$19</c:f>
+              <c:f>factorial!$E$9:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1879,7 +1958,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$8</c:f>
+              <c:f>factorial!$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1893,7 +1972,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$B$19</c:f>
+              <c:f>factorial!$B$10:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1932,7 +2011,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$F$9:$F$19</c:f>
+              <c:f>factorial!$F$9:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1969,11 +2048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104588416"/>
-        <c:axId val="91041792"/>
+        <c:axId val="99425280"/>
+        <c:axId val="99427072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104588416"/>
+        <c:axId val="99425280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,7 +2062,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91041792"/>
+        <c:crossAx val="99427072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1991,7 +2070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91041792"/>
+        <c:axId val="99427072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2022,7 +2101,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104588416"/>
+        <c:crossAx val="99425280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2037,6 +2116,731 @@
           <c:y val="0.75072142023913679"/>
           <c:w val="0.88927909011373585"/>
           <c:h val="0.18825605132691745"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Database</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17314129483814522"/>
+          <c:y val="0.19480351414406533"/>
+          <c:w val="0.79309339457567807"/>
+          <c:h val="0.52694407990667835"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>database!$D$5:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>App Inventor - save</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>database!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>database!$D$7:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>database!$E$5:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>App Inventor - get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>database!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>database!$E$7:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>database!$F$5:$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java SqlLite - save</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>database!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>database!$F$7:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>database!$G$5:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java SqlLite - get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>database!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>database!$G$7:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>database!$H$5:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java SharedPreferences - save</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>database!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>database!$H$7:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>database!$I$5:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java SharedPreferences - get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>database!$C$7:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>database!$I$7:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="40741504"/>
+        <c:axId val="43198336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="40741504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43198336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43198336"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>[ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40741504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4012467191601047E-2"/>
+          <c:y val="0.76384259259259257"/>
+          <c:w val="0.95320975503062122"/>
+          <c:h val="0.19442111402741319"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2085,23 +2889,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2109,7 +2920,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2118,7 +2929,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2153,20 +2964,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2187,16 +2998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2210,6 +3021,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2505,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I36"/>
+  <dimension ref="C3:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R42" sqref="B24:R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,7 +3418,7 @@
         <v>0.38300000000000001</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I14" si="0">G7/H7</f>
+        <f>G7/H7</f>
         <v>1334.2036553524804</v>
       </c>
     </row>
@@ -2590,7 +3436,7 @@
         <v>0.495</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f>G8/H8</f>
         <v>1492.9292929292928</v>
       </c>
     </row>
@@ -2608,7 +3454,7 @@
         <v>0.55600000000000005</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f>G9/H9</f>
         <v>2044.9640287769782</v>
       </c>
     </row>
@@ -2626,7 +3472,7 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f>G10/H10</f>
         <v>2550.1618122977347</v>
       </c>
     </row>
@@ -2644,7 +3490,7 @@
         <v>0.74</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f>G11/H11</f>
         <v>2321.6216216216217</v>
       </c>
     </row>
@@ -2662,7 +3508,7 @@
         <v>0.88</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f>G12/H12</f>
         <v>2437.5</v>
       </c>
     </row>
@@ -2680,7 +3526,7 @@
         <v>1.105</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f>G13/H13</f>
         <v>2441.6289592760181</v>
       </c>
     </row>
@@ -2698,7 +3544,7 @@
         <v>1.3180000000000001</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f>G14/H14</f>
         <v>2715.4779969650986</v>
       </c>
     </row>
@@ -2720,113 +3566,6 @@
       </c>
       <c r="D16">
         <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>500</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>400</v>
-      </c>
-      <c r="G29">
-        <v>8</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>300</v>
-      </c>
-      <c r="G30">
-        <v>12</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31">
-        <v>200</v>
-      </c>
-      <c r="G31">
-        <v>11</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>100</v>
-      </c>
-      <c r="G32">
-        <v>10</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <v>50</v>
-      </c>
-      <c r="G33">
-        <v>28</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>20</v>
-      </c>
-      <c r="G34">
-        <v>40</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>47</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>54</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2837,10 +3576,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F8:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>400</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>28</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>47</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>54</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,12 +3860,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,4 +4040,300 @@
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>215</v>
+      </c>
+      <c r="E7" s="2">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2">
+        <v>115</v>
+      </c>
+      <c r="G7" s="2">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>408</v>
+      </c>
+      <c r="E8" s="2">
+        <v>119</v>
+      </c>
+      <c r="F8" s="2">
+        <v>289</v>
+      </c>
+      <c r="G8" s="6">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2">
+        <v>526</v>
+      </c>
+      <c r="E9" s="2">
+        <v>142</v>
+      </c>
+      <c r="F9" s="2">
+        <v>341</v>
+      </c>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <v>737</v>
+      </c>
+      <c r="E10" s="2">
+        <v>252</v>
+      </c>
+      <c r="F10" s="2">
+        <v>424</v>
+      </c>
+      <c r="G10" s="2">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2">
+        <v>912</v>
+      </c>
+      <c r="E11" s="2">
+        <v>221</v>
+      </c>
+      <c r="F11" s="2">
+        <v>530</v>
+      </c>
+      <c r="G11" s="2">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1173</v>
+      </c>
+      <c r="E12" s="2">
+        <v>320</v>
+      </c>
+      <c r="F12" s="2">
+        <v>743</v>
+      </c>
+      <c r="G12" s="2">
+        <v>55</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1666</v>
+      </c>
+      <c r="E13" s="2">
+        <v>400</v>
+      </c>
+      <c r="F13" s="2">
+        <v>802</v>
+      </c>
+      <c r="G13" s="2">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1761</v>
+      </c>
+      <c r="E14" s="2">
+        <v>411</v>
+      </c>
+      <c r="F14" s="2">
+        <v>822</v>
+      </c>
+      <c r="G14" s="2">
+        <v>69</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1822</v>
+      </c>
+      <c r="E15" s="2">
+        <v>436</v>
+      </c>
+      <c r="F15" s="2">
+        <v>950</v>
+      </c>
+      <c r="G15" s="2">
+        <v>65</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2067</v>
+      </c>
+      <c r="E16" s="2">
+        <v>485</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1094</v>
+      </c>
+      <c r="G16" s="2">
+        <v>67</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Master-thesis-text/Book1.xlsx
+++ b/Master-thesis-text/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="sort" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="fibonacci" sheetId="2" r:id="rId3"/>
     <sheet name="factorial" sheetId="3" r:id="rId4"/>
     <sheet name="database" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Sortowanie</t>
   </si>
@@ -63,6 +64,48 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Wrzesień</t>
+  </si>
+  <si>
+    <t>Sierpień</t>
+  </si>
+  <si>
+    <t>Lipiec</t>
+  </si>
+  <si>
+    <t>Czerwiec</t>
+  </si>
+  <si>
+    <t>Maj</t>
+  </si>
+  <si>
+    <t>Kwiecień</t>
+  </si>
+  <si>
+    <t>Marzec</t>
+  </si>
+  <si>
+    <t>Luty</t>
+  </si>
+  <si>
+    <t>Styczeń</t>
+  </si>
+  <si>
+    <t>Grudzień</t>
+  </si>
+  <si>
+    <t>Listopad</t>
+  </si>
+  <si>
+    <t>Październik</t>
+  </si>
+  <si>
+    <t>Aplikacje o niskiej jakości</t>
+  </si>
+  <si>
+    <t>Regularne aplikacje</t>
   </si>
 </sst>
 </file>
@@ -163,13 +206,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,7 +257,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -415,11 +457,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92119040"/>
-        <c:axId val="92120576"/>
+        <c:axId val="87637376"/>
+        <c:axId val="87688320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92119040"/>
+        <c:axId val="87637376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -429,7 +471,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92120576"/>
+        <c:crossAx val="87688320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -437,7 +479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92120576"/>
+        <c:axId val="87688320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -475,7 +517,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92119040"/>
+        <c:crossAx val="87637376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -528,7 +570,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -729,11 +770,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113428736"/>
-        <c:axId val="101535744"/>
+        <c:axId val="89346816"/>
+        <c:axId val="89348352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113428736"/>
+        <c:axId val="89346816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,7 +784,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101535744"/>
+        <c:crossAx val="89348352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -751,7 +792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101535744"/>
+        <c:axId val="89348352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +829,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113428736"/>
+        <c:crossAx val="89346816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -841,7 +882,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1042,11 +1082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98660736"/>
-        <c:axId val="98662272"/>
+        <c:axId val="98116736"/>
+        <c:axId val="98118272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98660736"/>
+        <c:axId val="98116736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1096,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98662272"/>
+        <c:crossAx val="98118272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1064,7 +1104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98662272"/>
+        <c:axId val="98118272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1088,21 +1128,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98660736"/>
+        <c:crossAx val="98116736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1544,11 +1582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98976896"/>
-        <c:axId val="98978432"/>
+        <c:axId val="98203136"/>
+        <c:axId val="98204672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98976896"/>
+        <c:axId val="98203136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1596,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98978432"/>
+        <c:crossAx val="98204672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98978432"/>
+        <c:axId val="98204672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1590,14 +1628,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98976896"/>
+        <c:crossAx val="98203136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1658,7 +1695,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2048,11 +2084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99425280"/>
-        <c:axId val="99427072"/>
+        <c:axId val="98248576"/>
+        <c:axId val="98250112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99425280"/>
+        <c:axId val="98248576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2098,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99427072"/>
+        <c:crossAx val="98250112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2070,7 +2106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99427072"/>
+        <c:axId val="98250112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2094,14 +2130,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99425280"/>
+        <c:crossAx val="98248576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2773,11 +2808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40741504"/>
-        <c:axId val="43198336"/>
+        <c:axId val="99066240"/>
+        <c:axId val="99067776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40741504"/>
+        <c:axId val="99066240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2787,7 +2822,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43198336"/>
+        <c:crossAx val="99067776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2795,7 +2830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43198336"/>
+        <c:axId val="99067776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2826,7 +2861,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40741504"/>
+        <c:crossAx val="99066240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2843,6 +2878,332 @@
           <c:h val="0.19442111402741319"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Regularne aplikacje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$8:$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Wrzesień</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Październik</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Listopad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Grudzień</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Styczeń</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Luty</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Marzec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kwiecień</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Maj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Lipiec</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sierpień</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Wrzesień</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$8:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>19490</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32828</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aplikacje o niskiej jakości</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$8:$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Wrzesień</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Październik</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Listopad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Grudzień</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Styczeń</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Luty</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Marzec</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kwiecień</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Maj</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Czerwiec</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Lipiec</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sierpień</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Wrzesień</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-1438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-11664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3243</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12458</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="45726336"/>
+        <c:axId val="46125440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45726336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46125440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46125440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość aplikacji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45726336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3048,6 +3409,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228602</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3400,7 +3798,7 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="I6">
-        <f>G6/H6</f>
+        <f t="shared" ref="I6:I14" si="0">G6/H6</f>
         <v>1396.4757709251101</v>
       </c>
     </row>
@@ -3418,7 +3816,7 @@
         <v>0.38300000000000001</v>
       </c>
       <c r="I7">
-        <f>G7/H7</f>
+        <f t="shared" si="0"/>
         <v>1334.2036553524804</v>
       </c>
     </row>
@@ -3436,7 +3834,7 @@
         <v>0.495</v>
       </c>
       <c r="I8">
-        <f>G8/H8</f>
+        <f t="shared" si="0"/>
         <v>1492.9292929292928</v>
       </c>
     </row>
@@ -3454,7 +3852,7 @@
         <v>0.55600000000000005</v>
       </c>
       <c r="I9">
-        <f>G9/H9</f>
+        <f t="shared" si="0"/>
         <v>2044.9640287769782</v>
       </c>
     </row>
@@ -3472,7 +3870,7 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="I10">
-        <f>G10/H10</f>
+        <f t="shared" si="0"/>
         <v>2550.1618122977347</v>
       </c>
     </row>
@@ -3490,7 +3888,7 @@
         <v>0.74</v>
       </c>
       <c r="I11">
-        <f>G11/H11</f>
+        <f t="shared" si="0"/>
         <v>2321.6216216216217</v>
       </c>
     </row>
@@ -3508,7 +3906,7 @@
         <v>0.88</v>
       </c>
       <c r="I12">
-        <f>G12/H12</f>
+        <f t="shared" si="0"/>
         <v>2437.5</v>
       </c>
     </row>
@@ -3526,7 +3924,7 @@
         <v>1.105</v>
       </c>
       <c r="I13">
-        <f>G13/H13</f>
+        <f t="shared" si="0"/>
         <v>2441.6289592760181</v>
       </c>
     </row>
@@ -3544,7 +3942,7 @@
         <v>1.3180000000000001</v>
       </c>
       <c r="I14">
-        <f>G14/H14</f>
+        <f t="shared" si="0"/>
         <v>2715.4779969650986</v>
       </c>
     </row>
@@ -4046,7 +4444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4060,18 +4458,18 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -4132,7 +4530,7 @@
       <c r="F8" s="2">
         <v>289</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>28</v>
       </c>
       <c r="H8" s="2">
@@ -4336,4 +4734,210 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>19490</v>
+      </c>
+      <c r="F8">
+        <v>-1438</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>28198</v>
+      </c>
+      <c r="F9">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>23955</v>
+      </c>
+      <c r="F10">
+        <v>-396</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>66752</v>
+      </c>
+      <c r="F11">
+        <v>19089</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>52610</v>
+      </c>
+      <c r="F12">
+        <v>10457</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>28862</v>
+      </c>
+      <c r="F13">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>18599</v>
+      </c>
+      <c r="F14">
+        <v>-6049</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>20798</v>
+      </c>
+      <c r="F15">
+        <v>-11664</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>31935</v>
+      </c>
+      <c r="F16">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>31906</v>
+      </c>
+      <c r="F17">
+        <v>-3243</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>32828</v>
+      </c>
+      <c r="F18">
+        <v>-3154</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>31175</v>
+      </c>
+      <c r="F19">
+        <v>12458</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>7732</v>
+      </c>
+      <c r="F20">
+        <v>7732</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>